--- a/biology/Zoologie/Bitis_worthingtoni/Bitis_worthingtoni.xlsx
+++ b/biology/Zoologie/Bitis_worthingtoni/Bitis_worthingtoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis worthingtoni est une espèce de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis worthingtoni est une espèce de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kenya[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kenya.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bitis worthingtoni[1] mesure 275 mm dont 33 mm pour la queue. Il s'agit d'un serpent venimeux.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bitis worthingtoni mesure 275 mm dont 33 mm pour la queue. Il s'agit d'un serpent venimeux.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon est l'espèce type pour le sous-genre Keniabitis[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon est l'espèce type pour le sous-genre Keniabitis.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en l’honneur d'Edgar Barton Worthington qui a collecté l'holotype[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l’honneur d'Edgar Barton Worthington qui a collecté l'holotype.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Parker, 1932 : Scientific results of the Cambridge expedition to the east African lakes, 1930-31. 5. Reptiles and amphibians. The Journal of the Linnean Society of London. Zoology, vol. 38, p. 213-229.</t>
         </is>
